--- a/doc/2023年下期/【画面設計】番組参照ダイアログ（ProgramRefDialog.vue).xlsx
+++ b/doc/2023年下期/【画面設計】番組参照ダイアログ（ProgramRefDialog.vue).xlsx
@@ -2972,9 +2972,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.0"/>
-    <col customWidth="1" min="2" max="2" width="25.29"/>
+    <col customWidth="1" min="2" max="2" width="30.0"/>
     <col customWidth="1" min="3" max="3" width="18.29"/>
-    <col customWidth="1" min="4" max="4" width="58.29"/>
+    <col customWidth="1" min="4" max="4" width="59.86"/>
     <col customWidth="1" min="5" max="6" width="9.0"/>
     <col customWidth="1" min="7" max="7" width="21.29"/>
     <col customWidth="1" min="8" max="8" width="43.57"/>
@@ -4894,7 +4894,7 @@
       <c r="Y65" s="42"/>
       <c r="Z65" s="42"/>
     </row>
-    <row r="66" ht="38.25" customHeight="1">
+    <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="42"/>
       <c r="B66" s="45" t="s">
         <v>48</v>
@@ -31828,7 +31828,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="25.29"/>
+    <col customWidth="1" min="3" max="3" width="29.57"/>
     <col customWidth="1" min="4" max="4" width="35.43"/>
     <col customWidth="1" min="5" max="9" width="8.71"/>
     <col customWidth="1" min="10" max="10" width="11.57"/>
